--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -106,10 +106,10 @@
     <t>special</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>hand</t>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1103,25 +1103,25 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6986899563318777</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L12">
         <v>160</v>
       </c>
       <c r="M12">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1233,25 +1233,25 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.5975609756097561</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L17">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1259,25 +1259,25 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.5789473684210527</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="10:17">
